--- a/app/data/absenteeism_data_43.xlsx
+++ b/app/data/absenteeism_data_43.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87389</v>
+        <v>38823</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benício Barros</t>
+          <t>Pedro Miguel da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>7545.4</v>
+        <v>6267.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68383</v>
+        <v>21520</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan Cardoso</t>
+          <t>Gabrielly Moraes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>2552.29</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5544</v>
+        <v>1713</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Pedro Cunha</t>
+          <t>Lorenzo Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>4107.77</v>
+        <v>5562.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16634</v>
+        <v>47308</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitória Barros</t>
+          <t>Dr. Vinicius Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>12407.19</v>
+        <v>6332.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64788</v>
+        <v>3087</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alícia Martins</t>
+          <t>Murilo da Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>11794.07</v>
+        <v>5846.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32424</v>
+        <v>75021</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Calebe Farias</t>
+          <t>Srta. Sophia Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>8421.309999999999</v>
+        <v>11324.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15655</v>
+        <v>32589</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Ana Laura Silva</t>
+          <t>Dr. João Gabriel Teixeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>12244.3</v>
+        <v>4079.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46323</v>
+        <v>86687</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Laura da Rosa</t>
+          <t>Isabella das Neves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>3728.59</v>
+        <v>8606.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13977</v>
+        <v>80543</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maysa Almeida</t>
+          <t>Dr. Bryan Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>10810.39</v>
+        <v>11036.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>46109</v>
+        <v>70264</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Juan Monteiro</t>
+          <t>Sr. Levi Novaes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>5562.77</v>
+        <v>3543.44</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_43.xlsx
+++ b/app/data/absenteeism_data_43.xlsx
@@ -476,156 +476,156 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86064</v>
+        <v>21422</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Vitória Peixoto</t>
+          <t>Julia Oliveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>3251.59</v>
+        <v>7038.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36003</v>
+        <v>20754</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julia Fernandes</t>
+          <t>Natália da Luz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>3768.89</v>
+        <v>3724.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36633</v>
+        <v>78953</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitória Rezende</t>
+          <t>Sr. Benício Freitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>11422.75</v>
+        <v>12442.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95177</v>
+        <v>38008</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cauê Gomes</t>
+          <t>Daniela da Mata</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>12451.86</v>
+        <v>7434.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29053</v>
+        <v>45082</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Henrique da Conceição</t>
+          <t>Ana Laura Teixeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>4273.81</v>
+        <v>3890.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7992</v>
+        <v>38665</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juliana Moura</t>
+          <t>Vitor Gabriel Moura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,55 +635,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>5121.29</v>
+        <v>10519.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81462</v>
+        <v>33983</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maitê Carvalho</t>
+          <t>Júlia Melo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>4220.04</v>
+        <v>5189.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81082</v>
+        <v>15904</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emanuel Vieira</t>
+          <t>Sarah Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>10709.08</v>
+        <v>11528.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>988</v>
+        <v>59828</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nina Rezende</t>
+          <t>Thiago Gonçalves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>7579.73</v>
+        <v>8575.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57416</v>
+        <v>49503</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sophie Mendes</t>
+          <t>Sarah Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>10375.76</v>
+        <v>7461.65</v>
       </c>
     </row>
   </sheetData>
